--- a/htp/raw-data/hto-samples-groups.xlsx
+++ b/htp/raw-data/hto-samples-groups.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrprystupa/Projects/Alex-BINF-Pipelines/hashtag-pipeline/htp/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D00F8-4F60-B94D-855C-A2CFE0FB8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642ECD9-AF6D-434E-B1DC-25D2FBF735FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C32B7FE8-5513-4A40-BAC9-43F60C6F4792}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{3FD7FB10-AE18-454C-B710-4542ED585648}"/>
   </bookViews>
   <sheets>
-    <sheet name="example" sheetId="1" r:id="rId1"/>
+    <sheet name="sample1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,55 +37,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+  <si>
+    <t>Hashtag</t>
+  </si>
   <si>
     <t>Sample_ID</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>hashtag1</t>
   </si>
   <si>
-    <t>hashtag3</t>
-  </si>
-  <si>
-    <t>Hashtag</t>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Sequencing_Date</t>
+  </si>
+  <si>
+    <t>Raw_Data_Path</t>
+  </si>
+  <si>
+    <t>Sequencing_Pool</t>
+  </si>
+  <si>
+    <t>Time_Course</t>
+  </si>
+  <si>
+    <t>short_term</t>
+  </si>
+  <si>
+    <t>hashtag2</t>
+  </si>
+  <si>
+    <t>/path/to/sample1</t>
+  </si>
+  <si>
+    <t>/path/to/sample2</t>
+  </si>
+  <si>
+    <t>date_pool1</t>
+  </si>
+  <si>
+    <t>date1</t>
   </si>
   <si>
     <t>sample1</t>
   </si>
   <si>
+    <t>location1</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
     <t>sample2</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>ctrl</t>
-  </si>
-  <si>
-    <t>treatment</t>
+    <t>date_pool2</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>date2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2FFF12"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -113,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,64 +489,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C38143-3693-3C4F-B1E4-6E36182F7BA3}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F843BB66-7385-0A48-8A77-40021F85FA4E}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="177.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7048678C-416B-E94F-8C11-704142FE737C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>